--- a/backend_python/templates/guard_template.xlsx
+++ b/backend_python/templates/guard_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>รหัสพนักงาน</t>
+          <t>ชื่อ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ชื่อ</t>
+          <t>นามสกุล</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>นามสกุล</t>
+          <t>เบอร์โทร</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>เบอร์โทร</t>
+          <t>ที่อยู่</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ที่อยู่</t>
+          <t>เลขบัญชี</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>เลขบัญชี</t>
+          <t>รหัสธนาคาร</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>รหัสธนาคาร</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>สถานะ</t>
         </is>
@@ -478,40 +473,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GRD-001</t>
+          <t>สมชาย</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>สมชาย</t>
+          <t>ใจดี</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ใจดี</t>
+          <t>081-234-5678</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>081-234-5678</t>
+          <t>123 ถนนพระราม 4 แขวงปทุมวัน เขตปทุมวัน กรุงเทพฯ 10330</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123 ถนนพระราม 4 แขวงปทุมวัน เขตปทุมวัน กรุงเทพฯ 10330</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>KBANK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>KBANK</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>ทำงาน</t>
         </is>
@@ -520,40 +510,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRD-002</t>
+          <t>สมหญิง</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>สมหญิง</t>
+          <t>รักงาน</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>รักงาน</t>
+          <t>082-345-6789</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>082-345-6789</t>
+          <t>456 ซอยสุขุมวิท 1 เขตวัฒนา กรุงเทพฯ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>456 ซอยสุขุมวิท 1 เขตวัฒนา กรุงเทพฯ</t>
+          <t>0987654321</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>SCB</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>SCB</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>ทำงาน</t>
         </is>
